--- a/output/ModelSelection.xlsx
+++ b/output/ModelSelection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kharu\Documents\OhioState\STAT6750\StatConsultingFinal\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBACA708-A8CF-4022-91E5-FBFB0EE850CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45692D1-F129-4E1E-93A6-D7B70EC51CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E024D1E4-FE3C-4DED-BC5F-A2B02AB00E0B}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>0.69479999999999997</v>
+        <v>0.70530000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>0.82869999999999999</v>
+        <v>0.83089999999999997</v>
       </c>
     </row>
   </sheetData>
